--- a/Scrum/Templates/2/Agile-user-story-template.xlsx
+++ b/Scrum/Templates/2/Agile-user-story-template.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luisma\Documents\Visual Studio 2015\Projects\WindowsFormsApplication3\Scrum\Templates\2\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <r>
       <rPr>
@@ -61,18 +66,6 @@
     <t>User Story ID</t>
   </si>
   <si>
-    <t>Project manager</t>
-  </si>
-  <si>
-    <t>View a status report from each team member</t>
-  </si>
-  <si>
-    <t>Ensure the project stays on track.</t>
-  </si>
-  <si>
-    <t>Employee</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -95,25 +88,37 @@
     </r>
   </si>
   <si>
-    <t>Be reminded of upcoming deadlines</t>
-  </si>
-  <si>
-    <t>Complete my tasks on time.</t>
-  </si>
-  <si>
     <t>Agile User Story Template</t>
   </si>
   <si>
-    <t>Director</t>
+    <t>Track Agile User Stories in Smartsheet</t>
   </si>
   <si>
-    <t>See the big picture view of department work</t>
+    <t>View a 2 lines report of game</t>
   </si>
   <si>
-    <t>Stay in the loop.</t>
+    <t>have useful stats</t>
   </si>
   <si>
-    <t>Track Agile User Stories in Smartsheet</t>
+    <t>Aposter</t>
+  </si>
+  <si>
+    <t>View a series report ordered by day</t>
+  </si>
+  <si>
+    <t>have important info easily on hand</t>
+  </si>
+  <si>
+    <t>Order the series by sheets depending of the start day</t>
+  </si>
+  <si>
+    <t>have more order on the today and upcoming serie games</t>
+  </si>
+  <si>
+    <t>Have info from MLB and Covers on my DB</t>
+  </si>
+  <si>
+    <t>access easily important data</t>
   </si>
 </sst>
 </file>
@@ -250,6 +255,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -302,7 +315,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>3102735</xdr:colOff>
+      <xdr:colOff>2455035</xdr:colOff>
       <xdr:row>51</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
@@ -659,19 +672,19 @@
   <dimension ref="A1:L72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:E33"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.1640625" customWidth="1"/>
-    <col min="2" max="2" width="37.1640625" customWidth="1"/>
-    <col min="3" max="3" width="41.1640625" customWidth="1"/>
-    <col min="4" max="4" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="20.125" customWidth="1"/>
+    <col min="2" max="2" width="37.125" customWidth="1"/>
+    <col min="3" max="3" width="49.625" customWidth="1"/>
+    <col min="4" max="4" width="48.625" customWidth="1"/>
     <col min="5" max="5" width="44.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -685,9 +698,9 @@
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
     </row>
-    <row r="2" spans="1:12" ht="23">
+    <row r="2" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -701,7 +714,7 @@
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -715,7 +728,7 @@
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -729,7 +742,7 @@
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
     </row>
-    <row r="5" spans="1:12" ht="30" customHeight="1">
+    <row r="5" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
@@ -737,7 +750,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>1</v>
@@ -751,18 +764,18 @@
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
     </row>
-    <row r="6" spans="1:12" ht="22" customHeight="1">
+    <row r="6" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -773,18 +786,18 @@
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
     </row>
-    <row r="7" spans="1:12" ht="22" customHeight="1">
+    <row r="7" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>2</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -795,18 +808,18 @@
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
     </row>
-    <row r="8" spans="1:12" ht="22" customHeight="1">
+    <row r="8" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>3</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
@@ -817,11 +830,19 @@
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
     </row>
-    <row r="9" spans="1:12" ht="22" customHeight="1">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
+    <row r="9" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>4</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
@@ -831,7 +852,7 @@
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
     </row>
-    <row r="10" spans="1:12" ht="22" customHeight="1">
+    <row r="10" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -845,7 +866,7 @@
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
     </row>
-    <row r="11" spans="1:12" ht="22" customHeight="1">
+    <row r="11" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -859,7 +880,7 @@
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
     </row>
-    <row r="12" spans="1:12" ht="22" customHeight="1">
+    <row r="12" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -873,7 +894,7 @@
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
     </row>
-    <row r="13" spans="1:12" ht="22" customHeight="1">
+    <row r="13" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -887,7 +908,7 @@
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
     </row>
-    <row r="14" spans="1:12" ht="22" customHeight="1">
+    <row r="14" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -901,7 +922,7 @@
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
     </row>
-    <row r="15" spans="1:12" ht="22" customHeight="1">
+    <row r="15" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -915,7 +936,7 @@
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
     </row>
-    <row r="16" spans="1:12" ht="22" customHeight="1">
+    <row r="16" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -929,7 +950,7 @@
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
     </row>
-    <row r="17" spans="1:12" ht="22" customHeight="1">
+    <row r="17" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -943,7 +964,7 @@
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
     </row>
-    <row r="18" spans="1:12" ht="22" customHeight="1">
+    <row r="18" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -957,7 +978,7 @@
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
     </row>
-    <row r="19" spans="1:12" ht="22" customHeight="1">
+    <row r="19" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -971,7 +992,7 @@
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
     </row>
-    <row r="20" spans="1:12" ht="22" customHeight="1">
+    <row r="20" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -985,7 +1006,7 @@
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
     </row>
-    <row r="21" spans="1:12" ht="22" customHeight="1">
+    <row r="21" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -999,7 +1020,7 @@
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
     </row>
-    <row r="22" spans="1:12" ht="22" customHeight="1">
+    <row r="22" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -1013,7 +1034,7 @@
       <c r="K22" s="5"/>
       <c r="L22" s="5"/>
     </row>
-    <row r="23" spans="1:12" ht="22" customHeight="1">
+    <row r="23" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -1027,7 +1048,7 @@
       <c r="K23" s="5"/>
       <c r="L23" s="5"/>
     </row>
-    <row r="24" spans="1:12" ht="22" customHeight="1">
+    <row r="24" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -1041,7 +1062,7 @@
       <c r="K24" s="5"/>
       <c r="L24" s="5"/>
     </row>
-    <row r="25" spans="1:12" ht="22" customHeight="1">
+    <row r="25" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -1055,7 +1076,7 @@
       <c r="K25" s="5"/>
       <c r="L25" s="5"/>
     </row>
-    <row r="26" spans="1:12" ht="22" customHeight="1">
+    <row r="26" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -1069,7 +1090,7 @@
       <c r="K26" s="5"/>
       <c r="L26" s="5"/>
     </row>
-    <row r="27" spans="1:12" ht="22" customHeight="1">
+    <row r="27" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -1083,7 +1104,7 @@
       <c r="K27" s="5"/>
       <c r="L27" s="5"/>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -1097,9 +1118,9 @@
       <c r="K28" s="5"/>
       <c r="L28" s="5"/>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
@@ -1113,7 +1134,7 @@
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
@@ -1127,7 +1148,7 @@
       <c r="K30" s="5"/>
       <c r="L30" s="5"/>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
@@ -1141,7 +1162,7 @@
       <c r="K31" s="5"/>
       <c r="L31" s="5"/>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
@@ -1155,7 +1176,7 @@
       <c r="K32" s="5"/>
       <c r="L32" s="5"/>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
@@ -1169,7 +1190,7 @@
       <c r="K33" s="5"/>
       <c r="L33" s="5"/>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -1183,7 +1204,7 @@
       <c r="K34" s="5"/>
       <c r="L34" s="5"/>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -1197,7 +1218,7 @@
       <c r="K35" s="5"/>
       <c r="L35" s="5"/>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
@@ -1211,7 +1232,7 @@
       <c r="K36" s="5"/>
       <c r="L36" s="5"/>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="5"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
@@ -1225,7 +1246,7 @@
       <c r="K37" s="5"/>
       <c r="L37" s="5"/>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="5"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
@@ -1239,7 +1260,7 @@
       <c r="K38" s="5"/>
       <c r="L38" s="5"/>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="5"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
@@ -1253,7 +1274,7 @@
       <c r="K39" s="5"/>
       <c r="L39" s="5"/>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="5"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
@@ -1267,7 +1288,7 @@
       <c r="K40" s="5"/>
       <c r="L40" s="5"/>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
@@ -1281,7 +1302,7 @@
       <c r="K41" s="5"/>
       <c r="L41" s="5"/>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -1295,7 +1316,7 @@
       <c r="K42" s="5"/>
       <c r="L42" s="5"/>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="5"/>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
@@ -1309,7 +1330,7 @@
       <c r="K43" s="5"/>
       <c r="L43" s="5"/>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="5"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
@@ -1323,7 +1344,7 @@
       <c r="K44" s="5"/>
       <c r="L44" s="5"/>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="5"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
@@ -1337,7 +1358,7 @@
       <c r="K45" s="5"/>
       <c r="L45" s="5"/>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="5"/>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
@@ -1351,7 +1372,7 @@
       <c r="K46" s="5"/>
       <c r="L46" s="5"/>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="5"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
@@ -1365,7 +1386,7 @@
       <c r="K47" s="5"/>
       <c r="L47" s="5"/>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="5"/>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
@@ -1379,7 +1400,7 @@
       <c r="K48" s="5"/>
       <c r="L48" s="5"/>
     </row>
-    <row r="49" spans="1:12">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="5"/>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
@@ -1393,7 +1414,7 @@
       <c r="K49" s="5"/>
       <c r="L49" s="5"/>
     </row>
-    <row r="50" spans="1:12">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="5"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
@@ -1407,7 +1428,7 @@
       <c r="K50" s="5"/>
       <c r="L50" s="5"/>
     </row>
-    <row r="51" spans="1:12">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="5"/>
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
@@ -1421,7 +1442,7 @@
       <c r="K51" s="5"/>
       <c r="L51" s="5"/>
     </row>
-    <row r="52" spans="1:12">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="5"/>
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
@@ -1435,7 +1456,7 @@
       <c r="K52" s="5"/>
       <c r="L52" s="5"/>
     </row>
-    <row r="53" spans="1:12">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="5"/>
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
@@ -1449,7 +1470,7 @@
       <c r="K53" s="5"/>
       <c r="L53" s="5"/>
     </row>
-    <row r="54" spans="1:12">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="5"/>
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
@@ -1463,7 +1484,7 @@
       <c r="K54" s="5"/>
       <c r="L54" s="5"/>
     </row>
-    <row r="55" spans="1:12">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="5"/>
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
@@ -1477,7 +1498,7 @@
       <c r="K55" s="5"/>
       <c r="L55" s="5"/>
     </row>
-    <row r="56" spans="1:12">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="5"/>
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
@@ -1491,7 +1512,7 @@
       <c r="K56" s="5"/>
       <c r="L56" s="5"/>
     </row>
-    <row r="57" spans="1:12">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="5"/>
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
@@ -1505,7 +1526,7 @@
       <c r="K57" s="5"/>
       <c r="L57" s="5"/>
     </row>
-    <row r="58" spans="1:12">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="5"/>
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
@@ -1519,7 +1540,7 @@
       <c r="K58" s="5"/>
       <c r="L58" s="5"/>
     </row>
-    <row r="59" spans="1:12">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="5"/>
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
@@ -1533,7 +1554,7 @@
       <c r="K59" s="5"/>
       <c r="L59" s="5"/>
     </row>
-    <row r="60" spans="1:12">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="5"/>
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
@@ -1547,7 +1568,7 @@
       <c r="K60" s="5"/>
       <c r="L60" s="5"/>
     </row>
-    <row r="61" spans="1:12">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="5"/>
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
@@ -1561,7 +1582,7 @@
       <c r="K61" s="5"/>
       <c r="L61" s="5"/>
     </row>
-    <row r="62" spans="1:12">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="5"/>
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
@@ -1575,7 +1596,7 @@
       <c r="K62" s="5"/>
       <c r="L62" s="5"/>
     </row>
-    <row r="63" spans="1:12">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="5"/>
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
@@ -1589,7 +1610,7 @@
       <c r="K63" s="5"/>
       <c r="L63" s="5"/>
     </row>
-    <row r="64" spans="1:12">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="5"/>
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
@@ -1603,7 +1624,7 @@
       <c r="K64" s="5"/>
       <c r="L64" s="5"/>
     </row>
-    <row r="65" spans="1:12">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="5"/>
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
@@ -1617,7 +1638,7 @@
       <c r="K65" s="5"/>
       <c r="L65" s="5"/>
     </row>
-    <row r="66" spans="1:12">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="5"/>
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
@@ -1631,7 +1652,7 @@
       <c r="K66" s="5"/>
       <c r="L66" s="5"/>
     </row>
-    <row r="67" spans="1:12">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="5"/>
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
@@ -1645,7 +1666,7 @@
       <c r="K67" s="5"/>
       <c r="L67" s="5"/>
     </row>
-    <row r="68" spans="1:12">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="5"/>
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
@@ -1659,7 +1680,7 @@
       <c r="K68" s="5"/>
       <c r="L68" s="5"/>
     </row>
-    <row r="69" spans="1:12">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="5"/>
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
@@ -1673,7 +1694,7 @@
       <c r="K69" s="5"/>
       <c r="L69" s="5"/>
     </row>
-    <row r="70" spans="1:12">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="5"/>
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
@@ -1687,7 +1708,7 @@
       <c r="K70" s="5"/>
       <c r="L70" s="5"/>
     </row>
-    <row r="71" spans="1:12">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="5"/>
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
@@ -1701,7 +1722,7 @@
       <c r="K71" s="5"/>
       <c r="L71" s="5"/>
     </row>
-    <row r="72" spans="1:12">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="5"/>
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
